--- a/inst/DMD datasets.xlsx
+++ b/inst/DMD datasets.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\08_pkgs\r4proteomics\inst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://firalis-my.sharepoint.com/personal/miguel_casanova_firalis_com/Documents/Bureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36145F53-61A7-4F7E-BE92-6CB22D4CA672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="13_ncr:1_{36145F53-61A7-4F7E-BE92-6CB22D4CA672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFC4107F-9254-44A5-BA4B-1F02EDCB96F9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Public Datasets" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="134">
   <si>
     <t>Dataset ID</t>
   </si>
@@ -154,6 +156,286 @@
   </si>
   <si>
     <t>ProteomeXchange via PRIDE (linked in paper)</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD054747</t>
+  </si>
+  <si>
+    <t>PXD054747</t>
+  </si>
+  <si>
+    <t>Proteomics analysis of the SIRT1 activating compound SRT2104 effect on tibialis anterior muscle in Duchenne muscular dystrophy</t>
+  </si>
+  <si>
+    <t>TIC</t>
+  </si>
+  <si>
+    <t>Mus musculus (mouse)</t>
+  </si>
+  <si>
+    <t>Access to processed data</t>
+  </si>
+  <si>
+    <t>PXD052728</t>
+  </si>
+  <si>
+    <t>in vivo-like scaffold-free 3D in vitro Models of Muscular Dystrophies: The Case for Anchored Cell Sheet Engineering in Personalized Medicine</t>
+  </si>
+  <si>
+    <t>Homo sapiens (human)</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD052728</t>
+  </si>
+  <si>
+    <t>No. Only raw material.</t>
+  </si>
+  <si>
+    <t>https://ftp.pride.ebi.ac.uk/pride/data/archive/2024/12/PXD052728/Search.rar</t>
+  </si>
+  <si>
+    <t>Yes.</t>
+  </si>
+  <si>
+    <t>Yes. Use proteinGroups.txt file inside Search.rar</t>
+  </si>
+  <si>
+    <t>PXD052143</t>
+  </si>
+  <si>
+    <t>Cardio-metabolic and cytoskeletal proteomic signatures differentiate stress hypersensitivity in dystrophin-deficient mdx mice</t>
+  </si>
+  <si>
+    <t>Spectral Abundance Factor - SAF</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD052143</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD050694</t>
+  </si>
+  <si>
+    <t>PXD050694</t>
+  </si>
+  <si>
+    <t>Proteomic characterization of the molecular signature of congenital myopathies</t>
+  </si>
+  <si>
+    <t>PXD042227</t>
+  </si>
+  <si>
+    <t>One-line-fits-all: a knockdown strategy for rapid, generic and versatile modelling of muscular dystrophies in 3D-tissue-engineered-skeletal-muscle</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD042227</t>
+  </si>
+  <si>
+    <t>Yes. Use main_output_stijn.tsv file inside 	SEARCH_Fig3.zip</t>
+  </si>
+  <si>
+    <t>https://ftp.pride.ebi.ac.uk/pride/data/archive/2024/02/PXD042227/SEARCH_Fig3.zip</t>
+  </si>
+  <si>
+    <t>PXD039533</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD039533</t>
+  </si>
+  <si>
+    <t>Systemic deletion of DMD exon 51 rescues clinically severe Duchenne muscular dystrophy in a pig model lacking DMD exon 52</t>
+  </si>
+  <si>
+    <t>Sus scrofa domesticus (domestic pig)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes. </t>
+  </si>
+  <si>
+    <t>https://ftp.pride.ebi.ac.uk/pride/data/archive/2023/07/PXD039533/proteinGroups_myocardium.txt</t>
+  </si>
+  <si>
+    <t>https://ftp.pride.ebi.ac.uk/pride/data/archive/2023/07/PXD039533/proteinGroups_triceps.txt</t>
+  </si>
+  <si>
+    <t>PXD038406</t>
+  </si>
+  <si>
+    <t>Atrogin-1 regulates BiP levels - novel therapeutic targets for Duchenne Muscular Dystrophy</t>
+  </si>
+  <si>
+    <t>Danio rerio (zebrafish) (brachydanio rerio)</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD038406</t>
+  </si>
+  <si>
+    <t>Yes. proteinGroups.txt inside Library.zip</t>
+  </si>
+  <si>
+    <t>https://ftp.pride.ebi.ac.uk/pride/data/archive/2024/03/PXD038406/Library.zip</t>
+  </si>
+  <si>
+    <t>PXD028886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paeonia lactiflora extract increase the muscle function via downregulation of high mobility group box 1 and NF-kB signaling in mdx mice, an animal model of Duchenne muscular dystrophy
+</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD028886</t>
+  </si>
+  <si>
+    <t>https://ftp.pride.ebi.ac.uk/pride/data/archive/2022/02/PXD028886/210128-ebiogen_Mouse_samples_SWATH_37m_wo_reanno_nofix.tsv</t>
+  </si>
+  <si>
+    <t>PXD027772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A scalable, clinically severe pig model for Duchenne muscular dystrophy
+</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD027772</t>
+  </si>
+  <si>
+    <t>https://ftp.pride.ebi.ac.uk/pride/data/archive/2021/12/PXD027772/Myocardium_proteinGroups.txt</t>
+  </si>
+  <si>
+    <t>https://ftp.pride.ebi.ac.uk/pride/data/archive/2021/12/PXD027772/SKM_proteinGroups.txt</t>
+  </si>
+  <si>
+    <t>PXD024631</t>
+  </si>
+  <si>
+    <t>STARS overexpression in the mdx mouse tibialis anterior muscle increases maximal isometric force production and regulates members of the keratin, NRF2 and OXPHOS pathways</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD024631</t>
+  </si>
+  <si>
+    <t>https://ftp.pride.ebi.ac.uk/pride/data/archive/2021/08/PXD024631/P30569_2D-IDA-All.group</t>
+  </si>
+  <si>
+    <t>https://ftp.pride.ebi.ac.uk/pride/data/archive/2021/08/PXD024631/P30569_2D-IDA-All_HumanDB.group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes. 	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteome analysis of skeletal muscle samples from a porcine model of Duchenne muscular dystrophy
+</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD016003</t>
+  </si>
+  <si>
+    <t>https://ftp.pride.ebi.ac.uk/pride/data/archive/2020/01/PXD016003/proteinGroups.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myogenesis modelled by human pluripotent stem cells uncovers Duchenne muscular dystrophy phenotypes prior to skeletal muscle commitment
+</t>
+  </si>
+  <si>
+    <t>PXD015355</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD015355</t>
+  </si>
+  <si>
+    <t>https://ftp.pride.ebi.ac.uk/pride/data/archive/2021/09/PXD015355/24May18_Maxime_DMD_pep_all.xlsx</t>
+  </si>
+  <si>
+    <t>https://ftp.pride.ebi.ac.uk/pride/data/archive/2020/02/PXD014893/proteinGroups.txt</t>
+  </si>
+  <si>
+    <t>PXD014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteome analysis of skeletal muscle samples from a porcine model of Duchenne muscular dystrophy treated by somatic gene editing
+</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD014893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis of skeletal muscle from a tailored pig model of Duchenne muscular dystrophy
+</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD002918</t>
+  </si>
+  <si>
+    <t>https://ftp.pride.ebi.ac.uk/pride/data/archive/2016/09/PXD002918/proteinGroups.txt</t>
+  </si>
+  <si>
+    <t>PXD059983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proteome analysis of satellite cells from DMD and WT pigs
+</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/pride/archive/projects/PXD059983</t>
+  </si>
+  <si>
+    <t>https://ftp.pride.ebi.ac.uk/pride/data/archive/2025/06/PXD059983/proteinGroups.txt</t>
+  </si>
+  <si>
+    <t>Processing Software</t>
+  </si>
+  <si>
+    <t>Not usable</t>
+  </si>
+  <si>
+    <t>MaxQuant</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>DIA-NN</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>OpenSWATH/Unknown</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Spectronaut</t>
+  </si>
+  <si>
+    <t>TMT</t>
+  </si>
+  <si>
+    <t>Proteome Discoverer</t>
+  </si>
+  <si>
+    <t>Label free - LFQ</t>
+  </si>
+  <si>
+    <t>Data-independent acquisition - DIA/SWATH</t>
+  </si>
+  <si>
+    <t>MS1 intensity based label-free quantification method - LFQ</t>
+  </si>
+  <si>
+    <t>SWATH MS</t>
+  </si>
+  <si>
+    <t>Usability for the course</t>
+  </si>
+  <si>
+    <t>URI(s)</t>
   </si>
 </sst>
 </file>
@@ -206,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -220,6 +502,26 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -229,6 +531,11 @@
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{40A15EB6-10E8-4D1F-B122-7CD2BE8AAC9B}"/>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFF85D3E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -505,22 +812,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -566,7 +873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -589,7 +896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -612,7 +919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -635,7 +942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -658,7 +965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -692,4 +999,612 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2C6E54-5F11-41F7-B663-CDE5408E29DA}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="50.109375" customWidth="1"/>
+    <col min="11" max="11" width="53.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="6">
+        <v>45784</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45650</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45654</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="6">
+        <v>45783</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="6">
+        <v>45348</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="6">
+        <v>45118</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="6">
+        <v>45358</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="6">
+        <v>44608</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="6">
+        <v>44531</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="6">
+        <v>44420</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="6">
+        <v>43839</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="6">
+        <v>44447</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="6">
+        <v>43866</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="6">
+        <v>42640</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="6">
+        <v>45837</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="3:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="3:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="3:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="3:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="3:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{2927A7A9-1EE0-4EC6-885B-0DD8C2B78CB0}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{932164C5-1C41-474F-AF5C-B9A1D7E43A19}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{032619F2-43F3-4222-BCC9-F47B07D75D67}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{2630AAAA-A928-4E1A-8D81-AC807EE2A3C6}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{1A3C9F7C-CAF6-4A79-B1B9-2E6116999359}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{4309585F-87DC-45E8-A4A7-9039BD0C547A}"/>
+    <hyperlink ref="J6" r:id="rId7" xr:uid="{7C5ADC6F-C048-4F92-BD8E-E1CB031C231D}"/>
+    <hyperlink ref="G7" r:id="rId8" xr:uid="{C63D783A-F3FF-40A4-A58D-3DE0FD0C5A19}"/>
+    <hyperlink ref="J7" r:id="rId9" xr:uid="{9A5DDF53-1576-4ED1-A06D-274D0911378D}"/>
+    <hyperlink ref="K7" r:id="rId10" xr:uid="{7D3F7AA9-BEF7-4F1A-B81A-3EE38505B8ED}"/>
+    <hyperlink ref="G8" r:id="rId11" xr:uid="{F97E77FC-19F9-44DA-B96A-5C5530CB794F}"/>
+    <hyperlink ref="J8" r:id="rId12" xr:uid="{4834EC96-30C1-49FB-9D0B-447AE578B745}"/>
+    <hyperlink ref="G9" r:id="rId13" xr:uid="{6B0E7FD1-A4B5-4FFA-98AA-6B99ECB2E3E6}"/>
+    <hyperlink ref="J9" r:id="rId14" xr:uid="{C7FF56D0-FB7A-4637-B693-100232B40785}"/>
+    <hyperlink ref="G10" r:id="rId15" xr:uid="{7905ED4F-813D-4E5F-BDC3-18D0EE7A5881}"/>
+    <hyperlink ref="J10" r:id="rId16" xr:uid="{1C0AE016-7629-4CFD-9A3F-DB032F9C2ED0}"/>
+    <hyperlink ref="K10" r:id="rId17" xr:uid="{6F342FFF-4E13-406F-8828-C07114479532}"/>
+    <hyperlink ref="G11" r:id="rId18" xr:uid="{843A33CA-220E-4F77-AD70-99B95008E859}"/>
+    <hyperlink ref="J11" r:id="rId19" xr:uid="{955178E9-3C6D-460B-B0B6-9FC148361549}"/>
+    <hyperlink ref="K11" r:id="rId20" xr:uid="{58096448-544C-448F-9920-52B131E5611E}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{A01A4C70-1DC8-4133-81A6-36670514F912}"/>
+    <hyperlink ref="J12" r:id="rId22" xr:uid="{A71B5FF7-1985-47E7-9019-81EFAE8CF57E}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{EC57E044-FE7D-4E7E-92BC-EFEDD36AA9BB}"/>
+    <hyperlink ref="J13" r:id="rId24" xr:uid="{FCA86411-4160-4EE8-80B5-60FA24915425}"/>
+    <hyperlink ref="J14" r:id="rId25" xr:uid="{0C1BD9CD-2899-405B-B20F-B57D8CF6E4D1}"/>
+    <hyperlink ref="G14" r:id="rId26" xr:uid="{993D56C5-E06D-4E3D-BCF7-974A313E8FC0}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{95BECCA8-3AA7-496B-ADCD-7BC8127D87A4}"/>
+    <hyperlink ref="J15" r:id="rId28" xr:uid="{78ECBA9D-95EE-4E13-89D4-29BC39335A0D}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{FC8B7163-43DE-4554-8FD4-B16A8FC12491}"/>
+    <hyperlink ref="J16" r:id="rId30" xr:uid="{51EC6520-17CC-418B-B5A4-A175DC755663}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>